--- a/server/app/templates/report_t.xlsx
+++ b/server/app/templates/report_t.xlsx
@@ -51,7 +51,7 @@
     <t>Пользователь</t>
   </si>
   <si>
-    <t>Реестр перевозок клиента службой "Социальное такси"</t>
+    <t>Реестр заявок по клиенту</t>
   </si>
 </sst>
 </file>

--- a/server/app/templates/report_t.xlsx
+++ b/server/app/templates/report_t.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">№ п/п </t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Реестр заявок по клиенту</t>
+  </si>
+  <si>
+    <t>Коммент.</t>
   </si>
 </sst>
 </file>
@@ -448,9 +451,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -458,18 +461,19 @@
   <cols>
     <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="3" customWidth="1"/>
     <col min="4" max="5" width="15.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="5"/>
-    <col min="9" max="9" width="10.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="14.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -482,8 +486,9 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -494,8 +499,9 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -506,8 +512,9 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -533,20 +540,23 @@
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;8&amp;D &amp;T &amp;F</oddHeader>

--- a/server/app/templates/report_t.xlsx
+++ b/server/app/templates/report_t.xlsx
@@ -463,10 +463,10 @@
     <col min="2" max="2" width="4.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" style="3" customWidth="1"/>
     <col min="4" max="5" width="15.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="5"/>
-    <col min="9" max="9" width="14.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="5" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="5" customWidth="1"/>
     <col min="11" max="11" width="16.140625" style="5" customWidth="1"/>
     <col min="12" max="12" width="9.42578125" style="2" customWidth="1"/>
@@ -556,7 +556,7 @@
     <mergeCell ref="A3:K3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;8&amp;D &amp;T &amp;F</oddHeader>
